--- a/movielist.xlsx
+++ b/movielist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmoore\OneDrive - Condrey Corporation\Documents\Coding\Personal\Repos\random\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B7AE10-9F95-4F2C-8B80-22B42967238F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82459CA-2A81-41DF-AF7C-82BA9730BA3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="2895" windowWidth="20685" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1485" yWindow="1680" windowWidth="24585" windowHeight="7710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
@@ -471,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C6" sqref="A6:XFD160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,288 +635,6 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E70" s="1"/>
-    </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E71" s="1"/>
-    </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E72" s="1"/>
-    </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E73" s="1"/>
-    </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E74" s="1"/>
-    </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E75" s="1"/>
-    </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E76" s="1"/>
-    </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E77" s="1"/>
-    </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E78" s="1"/>
-    </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E79" s="1"/>
-    </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E80" s="1"/>
-    </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E81" s="1"/>
-    </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E82" s="1"/>
-    </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E83" s="1"/>
-    </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E84" s="1"/>
-    </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E85" s="1"/>
-    </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E86" s="1"/>
-    </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E87" s="1"/>
-    </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E88" s="1"/>
-    </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E89" s="1"/>
-    </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E90" s="1"/>
-    </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E91" s="1"/>
-    </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E92" s="1"/>
-    </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E93" s="1"/>
-    </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E94" s="1"/>
-    </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E95" s="1"/>
-    </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E96" s="1"/>
-    </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E97" s="1"/>
-    </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E98" s="1"/>
-    </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E99" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
